--- a/medicine/Enfance/Révolte_des_enfants_du_bagne_de_Belle-Île/Révolte_des_enfants_du_bagne_de_Belle-Île.xlsx
+++ b/medicine/Enfance/Révolte_des_enfants_du_bagne_de_Belle-Île/Révolte_des_enfants_du_bagne_de_Belle-Île.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>R%C3%A9volte_des_enfants_du_bagne_de_Belle-%C3%8Ele</t>
+          <t>Révolte_des_enfants_du_bagne_de_Belle-Île</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La révolte des enfants du bagne de Belle-Île (aussi appelée évasion de la colonie pénitentiaire de Belle-Île-en-Mer, chasse à l'enfant de Belle-Île-en-Mer, mutinerie d'août 1934 de Belle-Île-en-Mer, évasion du bagne de Belle-île-en-Mer) est une suite d'évènements ayant eu lieu le 27 août 1934 et les jours suivants dans les établissements pénitentiaires de Belle-Île-en-Mer. Une centaine d'enfants, dénommé colons, de cette maison d'éducation surveillée se sont révoltés pour protester contre les mauvais traitements qu'il subissaient. Cinquante-cinq se sont enfuis. L'administration de la colonie pénitentiaire a fait appel à l'aide de la population pour récupérer les fuyards. Cet évènement a eu un fort retentissement dans l'opinion publique, et a entrainé un mouvement de protestation contre la violence faite à ces enfants..
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>R%C3%A9volte_des_enfants_du_bagne_de_Belle-%C3%8Ele</t>
+          <t>Révolte_des_enfants_du_bagne_de_Belle-Île</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,14 +525,16 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Colonie ? bagne ? maison de correction ?
-La prison de Belle-île est convertie par décision ministérielle du 29 mai 1880 pour ses bâtiments de Haute-Boulogne.
-La colonie reçoit, dans l'écrasante majorité des cas, des jeunes détenus acquittés comme ayant agi sans discernement mais non remis à leurs parents et, très rarement, des jeunes condamnés à un emprisonnement de six mois à deux ans[1]. Les jeunes détenus y sont âgés de 12 à 21 ans.
-Souvent, les enfants sont des orphelins[2], parfois coupables de vagabondage.
-Dans son ouvrage Le bataillon des "nuisibles"[3] paru en 2022, l'historien Julien Hillion décrit le quotidien de la colonie pénitentiaire à partir de milliers de sources conservées dans les archives de la préfecture du Morbihan. Ses travaux mettent pour la première fois en lumière la réalité des nombreuses violences dont ont été victimes les pupilles bellîlois. Il y recrée également les parcours de vie des nombreux colons depuis leur naissance jusqu'à leur mort. Dans son ouvrage, il remet toutefois en cause l'utilisation du terme « bagne pour enfants » pour désigner l'établissement. En effet, les pupilles n'y étaient pas soumis à des travaux forcés, élément qui constitue la condition première de l'existence d'un bagne (en Guyane ou en Nouvelle-Calédonie par exemple). Notant qu'il est utilisé dans les sources dès son ouverture, l'historien suggère d'utiliser le terme « maison de correction »[4] pour désigner l'établissement.
-Un quotidien coercitif et violent
-La discipline est extrêmement sévère[5]. Julien Hillion explique que les pupilles bellîlois subissent une « violence physique quotidienne, pourtant interdite par les règlements, qui crée rancœur et désir de vengeance »[6]. Il insiste sur le fait que les violences psychologiques font elles aussi de nombreux dégâts sur les jeunes détenus. Il ajoute enfin que ces pratiques sont dénoncées dans les journaux dès le début du XXe siècle, bien avant la campagne de presse des années 1930[7].
-L'institution devient en 1927 une maison d'éducation surveillée.
+          <t>Colonie ? bagne ? maison de correction ?</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La prison de Belle-île est convertie par décision ministérielle du 29 mai 1880 pour ses bâtiments de Haute-Boulogne.
+La colonie reçoit, dans l'écrasante majorité des cas, des jeunes détenus acquittés comme ayant agi sans discernement mais non remis à leurs parents et, très rarement, des jeunes condamnés à un emprisonnement de six mois à deux ans. Les jeunes détenus y sont âgés de 12 à 21 ans.
+Souvent, les enfants sont des orphelins, parfois coupables de vagabondage.
+Dans son ouvrage Le bataillon des "nuisibles" paru en 2022, l'historien Julien Hillion décrit le quotidien de la colonie pénitentiaire à partir de milliers de sources conservées dans les archives de la préfecture du Morbihan. Ses travaux mettent pour la première fois en lumière la réalité des nombreuses violences dont ont été victimes les pupilles bellîlois. Il y recrée également les parcours de vie des nombreux colons depuis leur naissance jusqu'à leur mort. Dans son ouvrage, il remet toutefois en cause l'utilisation du terme « bagne pour enfants » pour désigner l'établissement. En effet, les pupilles n'y étaient pas soumis à des travaux forcés, élément qui constitue la condition première de l'existence d'un bagne (en Guyane ou en Nouvelle-Calédonie par exemple). Notant qu'il est utilisé dans les sources dès son ouverture, l'historien suggère d'utiliser le terme « maison de correction » pour désigner l'établissement.
 </t>
         </is>
       </c>
@@ -531,7 +545,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>R%C3%A9volte_des_enfants_du_bagne_de_Belle-%C3%8Ele</t>
+          <t>Révolte_des_enfants_du_bagne_de_Belle-Île</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,15 +560,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Évènement d'août 1934</t>
+          <t>Contexte</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">La révolte
-La colonie pénitentiaire de Belle-Île est restée célèbre par la révolte, le 27 août 1934[8], d'une centaine de colons[9],[10], aussi dénommés pupilles[5]. La révolte trouve son origine dans le traitement et la discipline extrêmement durs de l'internat[11]. Lors d'un repas du soir, au cours du mois d'août, un des enfants croque dans son fromage avant de manger sa soupe ce qui pousse un gardien zélé à le frapper[12]. Un déchainement de violence se produisit[13].
-L'évasion et la chasse aux enfants
-Quelques moments plus tard, l'émeute se transforme en évasion, celle de 55 mutins[14],[5] (ou 56 selon certaines sources[15],[9]) qui se dispersent sur l'île. Jacques Prévert[16], ainsi que des amis de Saint-Germain-des-Prés sont à ce moment-là en résidence estivale sur l'île, et comme tous les habitants de l'île, ils sont sollicités à participer aux recherches des fuyards ; une récompense de 20 francs[14] est proposée[17]. En quelques heures, l'ensemble des fuyards est ramené dans leurs cellules[13]. Cette « chasse aux enfants » interpelle grandement l'auteur qui compose un poème, la Chasse à l'enfant[18]. Un film sur ce thème a débuté en 1947 mais n'a jamais été finalisé : La Fleur de l'âge[19].
+          <t>Un quotidien coercitif et violent</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La discipline est extrêmement sévère. Julien Hillion explique que les pupilles bellîlois subissent une « violence physique quotidienne, pourtant interdite par les règlements, qui crée rancœur et désir de vengeance ». Il insiste sur le fait que les violences psychologiques font elles aussi de nombreux dégâts sur les jeunes détenus. Il ajoute enfin que ces pratiques sont dénoncées dans les journaux dès le début du XXe siècle, bien avant la campagne de presse des années 1930.
+L'institution devient en 1927 une maison d'éducation surveillée.
 </t>
         </is>
       </c>
@@ -565,7 +583,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>R%C3%A9volte_des_enfants_du_bagne_de_Belle-%C3%8Ele</t>
+          <t>Révolte_des_enfants_du_bagne_de_Belle-Île</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -580,18 +598,18 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Retombées dans l'opinion publique et avancées juridiques</t>
+          <t>Évènement d'août 1934</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Campagne de presse
-Ce qui était un fait divers local est progressivement relayé par les journaux parisiens et nationaux[20], dont Paris-Soir, et prend une tournure nationale[13], notamment grâce à la campagne de presse[21] du journaliste Alexis Danan[22],[23],[24]. La population est choquée par les mauvais traitements subis par les enfants, et un début de sensibilisation à la protection de la jeunesse émerge[25].
-La campagne de presse dure trois ans, et Alexis Danan met en lumière les conditions équivalentes de la colonie agricole et pénitentiaire de Mettray.
-Avancées juridiques
-Des avancées juridiques s'imposent petit à petit. Ainsi, le décret du 31 octobre 1935 dépénalise le vagabondage des mineurs en le faisant relever dorénavant du domaine civil, en l'occurrence de l'assistance éducative[4].
-L'ordonnance du 2 février 1945 proclame l'éducabilité du mineur délinquant. Le 1er septembre 1945 est créée une direction de l'éducation surveillée autonome de l'administration pénitentiaire[4].
-En 1946, commence la réforme de l'institution publique d'éducation surveillée de Belle-Île-en-Mer[4]
+          <t>La révolte</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La colonie pénitentiaire de Belle-Île est restée célèbre par la révolte, le 27 août 1934, d'une centaine de colons aussi dénommés pupilles. La révolte trouve son origine dans le traitement et la discipline extrêmement durs de l'internat. Lors d'un repas du soir, au cours du mois d'août, un des enfants croque dans son fromage avant de manger sa soupe ce qui pousse un gardien zélé à le frapper. Un déchainement de violence se produisit.
 </t>
         </is>
       </c>
@@ -602,7 +620,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>R%C3%A9volte_des_enfants_du_bagne_de_Belle-%C3%8Ele</t>
+          <t>Révolte_des_enfants_du_bagne_de_Belle-Île</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -617,26 +635,217 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Évènement d'août 1934</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>L'évasion et la chasse aux enfants</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Quelques moments plus tard, l'émeute se transforme en évasion, celle de 55 mutins, (ou 56 selon certaines sources,) qui se dispersent sur l'île. Jacques Prévert, ainsi que des amis de Saint-Germain-des-Prés sont à ce moment-là en résidence estivale sur l'île, et comme tous les habitants de l'île, ils sont sollicités à participer aux recherches des fuyards ; une récompense de 20 francs est proposée. En quelques heures, l'ensemble des fuyards est ramené dans leurs cellules. Cette « chasse aux enfants » interpelle grandement l'auteur qui compose un poème, la Chasse à l'enfant. Un film sur ce thème a débuté en 1947 mais n'a jamais été finalisé : La Fleur de l'âge.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Révolte_des_enfants_du_bagne_de_Belle-Île</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/R%C3%A9volte_des_enfants_du_bagne_de_Belle-%C3%8Ele</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Retombées dans l'opinion publique et avancées juridiques</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Campagne de presse</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce qui était un fait divers local est progressivement relayé par les journaux parisiens et nationaux, dont Paris-Soir, et prend une tournure nationale, notamment grâce à la campagne de presse du journaliste Alexis Danan. La population est choquée par les mauvais traitements subis par les enfants, et un début de sensibilisation à la protection de la jeunesse émerge.
+La campagne de presse dure trois ans, et Alexis Danan met en lumière les conditions équivalentes de la colonie agricole et pénitentiaire de Mettray.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Révolte_des_enfants_du_bagne_de_Belle-Île</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/R%C3%A9volte_des_enfants_du_bagne_de_Belle-%C3%8Ele</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Retombées dans l'opinion publique et avancées juridiques</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Avancées juridiques</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Des avancées juridiques s'imposent petit à petit. Ainsi, le décret du 31 octobre 1935 dépénalise le vagabondage des mineurs en le faisant relever dorénavant du domaine civil, en l'occurrence de l'assistance éducative.
+L'ordonnance du 2 février 1945 proclame l'éducabilité du mineur délinquant. Le 1er septembre 1945 est créée une direction de l'éducation surveillée autonome de l'administration pénitentiaire.
+En 1946, commence la réforme de l'institution publique d'éducation surveillée de Belle-Île-en-Mer
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Révolte_des_enfants_du_bagne_de_Belle-Île</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/R%C3%A9volte_des_enfants_du_bagne_de_Belle-%C3%8Ele</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Dans les arts</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Littérature
-Jean-Hugues Lime, La chasse aux enfants, Paris, Le Cherche Midi, 2004, 273 p. (ISBN 2-7491-0253-7) : le roman raconte la vie quotidienne des colons, du point de vue des détenues, à l'époque de la révolte de 1934.
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Littérature</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Jean-Hugues Lime, La chasse aux enfants, Paris, Le Cherche Midi, 2004, 273 p. (ISBN 2-7491-0253-7) : le roman raconte la vie quotidienne des colons, du point de vue des détenues, à l'époque de la révolte de 1934.
 Dorothée Piatek, Le silence des oiseaux, Paris, Seuil Jeunesse, 2014, 177 p. (ISBN 979-10-235-0202-2)
 Le goût du vent sur les lèvres, de Cédric Morgan, Les Escales, 2017 : le roman évoque la colonie pénitentiaire de Belle-Île, ainsi que certaines légendes et faits historiques liés à cette île.
-L'Enragé, de Sorj Chalandon, Grasset, 2023 : l'auteur imagine que l'un des enfants évadés lors de la révolte de 1934 n'est jamais retrouvé[26],[27].
-Littérature jeunesse
-Le Bagnard de Belle-Île : ce roman jeunesse publié chez Coop Breizh raconte l'histoire d'un trio de jeunes amis, ayant formé le "Club de l'au-delà" qui vient en aide à des fantômes pour leur permettre de gagner l'autre monde. Ils sont en visite à la citadelle Vauban, et se retrouvent entraînés par le fantôme d'une jeune fille à la recherche du fantôme de son fiancé, mort en s'échappant du bagne en 1934.
+L'Enragé, de Sorj Chalandon, Grasset, 2023 : l'auteur imagine que l'un des enfants évadés lors de la révolte de 1934 n'est jamais retrouvé,.</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Révolte_des_enfants_du_bagne_de_Belle-Île</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/R%C3%A9volte_des_enfants_du_bagne_de_Belle-%C3%8Ele</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Dans les arts</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Littérature</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Littérature jeunesse</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Le Bagnard de Belle-Île : ce roman jeunesse publié chez Coop Breizh raconte l'histoire d'un trio de jeunes amis, ayant formé le "Club de l'au-delà" qui vient en aide à des fantômes pour leur permettre de gagner l'autre monde. Ils sont en visite à la citadelle Vauban, et se retrouvent entraînés par le fantôme d'une jeune fille à la recherche du fantôme de son fiancé, mort en s'échappant du bagne en 1934.
 Le silence des oiseaux, de Dorothée Piatek, Seuil, 2014 : un roman jeunesse qui narre la tentative d'évasion d'un jeune bagnard orphelin.
-Traqués sur la lande, de Jean-Christophe Tixier, [Rageot], 2016.
-Audiovisuel
-Plusieurs films se sont inspirés de la révolte de 1934 :
-Au printemps 1947, Marcel Carné et Jacques Prévert font face à de nombreuses difficultés lors du tournage du film intitulé La Fleur de l’âge à Belle-Ile s’inspirant de la mutinerie de 1934 : intempéries, mouvements sociaux, accidents et querelles. Il ne reste rien du film, dont Jacques Prévert avait cosigné le scénario (c’était leur huitième collaboration), sinon une poignée de photographies en noir et blanc par Émile Savitry[28],[29],[30],[31].
+Traqués sur la lande, de Jean-Christophe Tixier, [Rageot], 2016.</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Révolte_des_enfants_du_bagne_de_Belle-Île</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/R%C3%A9volte_des_enfants_du_bagne_de_Belle-%C3%8Ele</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Dans les arts</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Audiovisuel</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Plusieurs films se sont inspirés de la révolte de 1934 :
+Au printemps 1947, Marcel Carné et Jacques Prévert font face à de nombreuses difficultés lors du tournage du film intitulé La Fleur de l’âge à Belle-Ile s’inspirant de la mutinerie de 1934 : intempéries, mouvements sociaux, accidents et querelles. Il ne reste rien du film, dont Jacques Prévert avait cosigné le scénario (c’était leur huitième collaboration), sinon une poignée de photographies en noir et blanc par Émile Savitry.
 La Révolte des enfants, réalisé par Gérard Poitou-Weber (1992)
 Les Vauriens, télé-film de Dominique Ladoge (2006)
-Belle-Île, de Elie Grappe, prévu en 2024[32]
+Belle-Île, de Elie Grappe, prévu en 2024
 En 1936, dans Jenny de Marcel Carné, Lucien Dancret (joué par Albert Préjean) et Danielle Bricart (jouée par Lisette Lanvin) font connaissance en discutant et rêvant d'évasion dans un troquet, Au rendez-vous de la marine. Danielle se souvient de ses vacances à Belle-Île, « joli au mois de février » avec ses mimosas. Lucien dit bien connaître l'endroit et les mimosas, « j'y suis resté onze ans ! » ; surprise, Danielle imagine qu'ils auraient pu s'y rencontrer ou qu'ils s'y sont peut-être vus sans le savoir. Lucien en doute : « oh, il y a peu de chance ! […] À Belle-Île, il y a un pénitencier, une prison de gosses, vous êtes sûrement passée devant ? » ; elle répond : « je ne me souviens pas, j'étais trop petite ! » avant que Lucien ne lui réplique gravement : « oui, moi-aussi, j'étais tout petit... ».</t>
         </is>
       </c>
